--- a/app/config/tables/stdGroundwaterSample/forms/stdGroundwaterSample/stdGroundwaterSample.xlsx
+++ b/app/config/tables/stdGroundwaterSample/forms/stdGroundwaterSample/stdGroundwaterSample.xlsx
@@ -9,12 +9,14 @@
     <sheet state="visible" name="gps_section" sheetId="4" r:id="rId6"/>
     <sheet state="visible" name="inspection_section" sheetId="5" r:id="rId7"/>
     <sheet state="visible" name="image_section" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="groundwater_section" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="queries" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="choices" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="calculates" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="settings" sheetId="11" r:id="rId13"/>
-    <sheet state="visible" name="model" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="sketch_section" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="signature_section" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="groundwater_section" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="queries" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="choices" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="calculates" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="settings" sheetId="13" r:id="rId15"/>
+    <sheet state="visible" name="model" sheetId="14" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="184">
   <si>
     <t>clause</t>
   </si>
@@ -78,7 +80,7 @@
     <t>begin screen</t>
   </si>
   <si>
-    <t>Well Integrity</t>
+    <t>Enter Well ID</t>
   </si>
   <si>
     <t>true</t>
@@ -90,7 +92,7 @@
     <t>sample_id</t>
   </si>
   <si>
-    <t>Sample/Well Id</t>
+    <t>Sample/Well ID</t>
   </si>
   <si>
     <t>end screen</t>
@@ -133,6 +135,18 @@
   </si>
   <si>
     <t>do section image_section</t>
+  </si>
+  <si>
+    <t>sketch</t>
+  </si>
+  <si>
+    <t>do section sketch_section</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>do section signature_section</t>
   </si>
   <si>
     <t>groundwater</t>
@@ -261,10 +275,25 @@
     <t>Add photos to this list</t>
   </si>
   <si>
-    <t>linked_table_image.handlebars</t>
+    <t>Add Image</t>
   </si>
   <si>
-    <t>Add Image</t>
+    <t>Sketch</t>
+  </si>
+  <si>
+    <t>skt</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>sign_person_name</t>
+  </si>
+  <si>
+    <t>Signatory Name</t>
+  </si>
+  <si>
+    <t>sign</t>
   </si>
   <si>
     <t>Groundwater Data</t>
@@ -291,19 +320,22 @@
     <t>depth_to_water</t>
   </si>
   <si>
-    <t>Depth to Water</t>
+    <t>Depth to Water (feet)</t>
   </si>
   <si>
     <t>depth_to_bottom</t>
   </si>
   <si>
-    <t>Depth to Well Bottom</t>
+    <t>Depth to Well Bottom (feet)</t>
   </si>
   <si>
     <t>material</t>
   </si>
   <si>
     <t>Well Construction Material</t>
+  </si>
+  <si>
+    <t>string_input_type.handlebars</t>
   </si>
   <si>
     <t>select_one_dropdown</t>
@@ -318,6 +350,9 @@
     <t>Type of Sampling</t>
   </si>
   <si>
+    <t>custom_select_dropdown.handlebars</t>
+  </si>
+  <si>
     <t>assign</t>
   </si>
   <si>
@@ -327,7 +362,7 @@
     <t>calculates.purgedVolume()</t>
   </si>
   <si>
-    <t>Calculation of One (1) Purge Volume</t>
+    <t>Calculation of One (1) Purge Volume (gallons)</t>
   </si>
   <si>
     <t>Field Chemistry Readings</t>
@@ -405,28 +440,16 @@
     <t>Photo.png</t>
   </si>
   <si>
-    <t>GWS Data</t>
-  </si>
-  <si>
-    <t>Groundwater.png</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
-    <t>Signature</t>
+    <t>Sketch.png</t>
   </si>
   <si>
     <t>Signature.png</t>
   </si>
   <si>
-    <t>sketch</t>
+    <t>GWS Data</t>
   </si>
   <si>
-    <t>Sketch</t>
-  </si>
-  <si>
-    <t>Sketch.png</t>
+    <t>Groundwater.png</t>
   </si>
   <si>
     <t>Exit</t>
@@ -547,6 +570,12 @@
   </si>
   <si>
     <t>image_section</t>
+  </si>
+  <si>
+    <t>sketch_section</t>
+  </si>
+  <si>
+    <t>signature_section</t>
   </si>
   <si>
     <t>groundwater_section</t>
@@ -743,6 +772,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/worksheetdrawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -830,13 +867,665 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="23.0"/>
+    <col customWidth="1" min="3" max="4" width="26.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.14"/>
+    <col customWidth="1" min="2" max="2" width="15.29"/>
+    <col customWidth="1" min="3" max="3" width="15.86"/>
+    <col customWidth="1" min="4" max="4" width="21.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="15.43"/>
     <col customWidth="1" min="2" max="2" width="43.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>14</v>
@@ -844,18 +1533,18 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +1552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -877,58 +1566,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B3" s="30">
-        <v>2.0160101002E10</v>
+        <v>2.0160101003E10</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C4" s="24"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="24" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -956,11 +1645,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -988,11 +1677,11 @@
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1020,11 +1709,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1052,28 +1741,46 @@
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="14" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1094,7 +1801,7 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>20</v>
@@ -1110,71 +1817,71 @@
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>20</v>
@@ -1182,31 +1889,31 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>20</v>
@@ -1214,61 +1921,75 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="3"/>
+      <c r="A22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="3"/>
     </row>
     <row r="34">
       <c r="B34" s="3"/>
     </row>
     <row r="35">
-      <c r="B35" s="3"/>
+      <c r="B35" s="24"/>
     </row>
     <row r="36">
-      <c r="B36" s="3"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37">
-      <c r="B37" s="24"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="4"/>
+      <c r="B37" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1366,7 +2087,7 @@
       <c r="F3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -1823,8 +2544,42 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1886,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>11</v>
@@ -1901,31 +2656,31 @@
         <v>14</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>15</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="V1" s="16" t="s">
         <v>16</v>
@@ -1946,7 +2701,7 @@
       <c r="E2" s="19"/>
       <c r="F2" s="15"/>
       <c r="G2" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1974,21 +2729,21 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3"/>
       <c r="J3" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
@@ -29920,34 +30675,34 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>16</v>
@@ -29967,7 +30722,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29987,19 +30742,19 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -30110,7 +30865,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="3"/>
@@ -30124,16 +30879,16 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -30147,16 +30902,16 @@
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -30170,16 +30925,16 @@
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -30193,16 +30948,16 @@
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -30216,16 +30971,16 @@
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -30239,16 +30994,16 @@
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -30725,34 +31480,34 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>16</v>
@@ -30781,7 +31536,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -30808,23 +31563,21 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="22"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="17" t="s">
-        <v>79</v>
-      </c>
+      <c r="M3" s="17"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -30833,7 +31586,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="3"/>
@@ -30885,13 +31638,452 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="6" max="6" width="15.43"/>
+    <col customWidth="1" min="8" max="8" width="19.57"/>
+    <col customWidth="1" min="9" max="9" width="21.43"/>
+    <col customWidth="1" min="10" max="10" width="35.14"/>
+    <col customWidth="1" min="13" max="13" width="26.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="6" max="6" width="16.57"/>
+    <col customWidth="1" min="8" max="8" width="19.57"/>
+    <col customWidth="1" min="9" max="9" width="22.71"/>
+    <col customWidth="1" min="10" max="10" width="35.14"/>
+    <col customWidth="1" min="13" max="13" width="26.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="2" max="2" width="27.14"/>
     <col customWidth="1" min="3" max="3" width="36.29"/>
     <col customWidth="1" min="4" max="4" width="19.43"/>
     <col customWidth="1" min="5" max="5" width="23.0"/>
     <col customWidth="1" min="6" max="6" width="16.57"/>
     <col customWidth="1" min="7" max="7" width="39.43"/>
-    <col customWidth="1" min="10" max="10" width="26.57"/>
+    <col customWidth="1" min="10" max="10" width="31.57"/>
     <col customWidth="1" min="11" max="11" width="30.29"/>
   </cols>
   <sheetData>
@@ -30947,7 +32139,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="3"/>
@@ -30961,12 +32153,12 @@
       <c r="B3" s="12"/>
       <c r="C3" s="3"/>
       <c r="D3" s="24" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
       <c r="G3" s="14" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -30980,19 +32172,19 @@
       <c r="B4" s="5"/>
       <c r="C4" s="3"/>
       <c r="D4" s="14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="14" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="14" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -31003,19 +32195,19 @@
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
       <c r="D5" s="14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="14" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="14" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -31026,19 +32218,19 @@
       <c r="B6" s="5"/>
       <c r="C6" s="3"/>
       <c r="D6" s="14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="14" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="14" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -31053,14 +32245,16 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="14" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -31070,20 +32264,22 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="24" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -31093,17 +32289,17 @@
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="14" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="14" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -31116,14 +32312,16 @@
         <v>20</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -31133,11 +32331,11 @@
       <c r="B11" s="12"/>
       <c r="C11" s="3"/>
       <c r="D11" s="14" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="14" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -31151,18 +32349,18 @@
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="8" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="8" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="3"/>
@@ -31607,584 +32805,4 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="23.0"/>
-    <col customWidth="1" min="3" max="4" width="26.43"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="21.14"/>
-    <col customWidth="1" min="2" max="2" width="15.29"/>
-    <col customWidth="1" min="3" max="3" width="15.86"/>
-    <col customWidth="1" min="4" max="4" width="21.43"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/app/config/tables/stdGroundwaterSample/forms/stdGroundwaterSample/stdGroundwaterSample.xlsx
+++ b/app/config/tables/stdGroundwaterSample/forms/stdGroundwaterSample/stdGroundwaterSample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="188">
   <si>
     <t>clause</t>
   </si>
@@ -281,6 +281,12 @@
     <t>Sketch</t>
   </si>
   <si>
+    <t>skt_name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>skt</t>
   </si>
   <si>
@@ -359,7 +365,7 @@
     <t>one_purge_volume</t>
   </si>
   <si>
-    <t>calculates.purgedVolume()</t>
+    <t>calculates.purgedVolumeRounded()</t>
   </si>
   <si>
     <t>Calculation of One (1) Purge Volume (gallons)</t>
@@ -533,6 +539,14 @@
 })()</t>
   </si>
   <si>
+    <t>purgedVolumeRounded</t>
+  </si>
+  <si>
+    <t>(function () {
+    return Number(Math.round(calculates.purgedVolume()+'e'+2)+'e-'+2);
+})()</t>
+  </si>
+  <si>
     <t>setting_name</t>
   </si>
   <si>
@@ -655,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -722,6 +736,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -872,49 +889,49 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>118</v>
+      <c r="A1" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>120</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>124</v>
+      <c r="C2" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -943,20 +960,20 @@
       <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -983,20 +1000,20 @@
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1036,10 +1053,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1049,17 +1066,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1092,10 +1109,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1121,17 +1138,17 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>135</v>
+      <c r="C4" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1163,11 +1180,11 @@
       <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1193,17 +1210,17 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1229,17 +1246,17 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>86</v>
+      <c r="C7" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1265,17 +1282,17 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>140</v>
+      <c r="C8" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1301,17 +1318,17 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>86</v>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1337,174 +1354,102 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
+      <c r="A10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
+        <v>149</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>145</v>
+      <c r="B12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>147</v>
+      <c r="A13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>149</v>
+      <c r="A14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>150</v>
+        <v>107</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>152</v>
+        <v>107</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1519,13 +1464,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="43.43"/>
+    <col customWidth="1" min="1" max="1" width="20.0"/>
+    <col customWidth="1" min="2" max="2" width="72.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>14</v>
@@ -1533,18 +1478,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1565,55 +1518,55 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>161</v>
+      <c r="A1" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="30">
-        <v>2.0160101003E10</v>
+        <v>170</v>
+      </c>
+      <c r="B3" s="31">
+        <v>2.0160103E7</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="24"/>
+      <c r="A4" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="24" t="s">
-        <v>169</v>
+      <c r="C5" s="25" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="12" t="s">
@@ -1645,11 +1598,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1677,11 +1630,11 @@
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1709,7 +1662,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="12" t="s">
@@ -1741,7 +1694,7 @@
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="14" t="s">
@@ -1750,25 +1703,25 @@
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>21</v>
@@ -1792,18 +1745,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1865,23 +1818,23 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>20</v>
@@ -1889,31 +1842,31 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>179</v>
+        <v>108</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>179</v>
+        <v>184</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>20</v>
@@ -1921,18 +1874,18 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -1948,33 +1901,38 @@
         <v>85</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="3"/>
     </row>
     <row r="29">
       <c r="B29" s="3"/>
     </row>
-    <row r="32">
-      <c r="B32" s="3"/>
+    <row r="30">
+      <c r="B30" s="3"/>
     </row>
     <row r="33">
       <c r="B33" s="3"/>
@@ -1983,13 +1941,16 @@
       <c r="B34" s="3"/>
     </row>
     <row r="35">
-      <c r="B35" s="24"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36">
-      <c r="B36" s="4"/>
+      <c r="B36" s="25"/>
     </row>
     <row r="37">
       <c r="B37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2009,8 +1970,8 @@
     <col customWidth="1" min="5" max="5" width="23.0"/>
     <col customWidth="1" min="6" max="6" width="16.57"/>
     <col customWidth="1" min="7" max="7" width="39.43"/>
-    <col customWidth="1" min="10" max="10" width="23.71"/>
-    <col customWidth="1" min="11" max="11" width="30.29"/>
+    <col customWidth="1" min="10" max="10" width="33.14"/>
+    <col customWidth="1" min="11" max="11" width="44.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2097,7 +2058,9 @@
       <c r="J3" s="3"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="M3" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
@@ -2207,6 +2170,8 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
@@ -2237,6 +2202,8 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
@@ -2267,6 +2234,8 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
@@ -2297,6 +2266,8 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
@@ -2327,6 +2298,8 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -2357,6 +2330,8 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="3"/>
@@ -2387,6 +2362,8 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
@@ -2434,6 +2411,8 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="3"/>
@@ -2464,6 +2443,8 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
@@ -31753,21 +31734,22 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>84</v>
+      <c r="G3" s="3"/>
+      <c r="H3" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="17"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -31775,7 +31757,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="6"/>
+      <c r="U3" s="3"/>
       <c r="V3" s="7"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -31785,38 +31767,43 @@
     </row>
     <row r="4">
       <c r="A4" s="3"/>
-      <c r="B4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="3"/>
-      <c r="B5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -31843,6 +31830,35 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
+    <row r="6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -31944,7 +31960,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -31975,10 +31991,10 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -32004,15 +32020,15 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="24" t="s">
-        <v>39</v>
+      <c r="D4" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
@@ -32139,7 +32155,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="3"/>
@@ -32152,13 +32168,13 @@
       <c r="A3" s="3"/>
       <c r="B3" s="12"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="24" t="s">
-        <v>91</v>
+      <c r="D3" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
       <c r="G3" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -32172,19 +32188,19 @@
       <c r="B4" s="5"/>
       <c r="C4" s="3"/>
       <c r="D4" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -32195,19 +32211,19 @@
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
       <c r="D5" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -32218,19 +32234,19 @@
       <c r="B6" s="5"/>
       <c r="C6" s="3"/>
       <c r="D6" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -32245,15 +32261,15 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -32263,22 +32279,22 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="24" t="s">
-        <v>104</v>
+      <c r="D8" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -32289,17 +32305,17 @@
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -32312,15 +32328,15 @@
         <v>20</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -32331,11 +32347,11 @@
       <c r="B11" s="12"/>
       <c r="C11" s="3"/>
       <c r="D11" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -32352,15 +32368,15 @@
         <v>55</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="3"/>

--- a/app/config/tables/stdGroundwaterSample/forms/stdGroundwaterSample/stdGroundwaterSample.xlsx
+++ b/app/config/tables/stdGroundwaterSample/forms/stdGroundwaterSample/stdGroundwaterSample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="189">
   <si>
     <t>clause</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>drawing</t>
   </si>
   <si>
     <t>skt</t>
@@ -890,48 +893,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -961,19 +964,19 @@
         <v>55</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1001,19 +1004,19 @@
         <v>55</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1053,10 +1056,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1076,7 +1079,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1109,10 +1112,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1145,10 +1148,10 @@
         <v>33</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1184,7 +1187,7 @@
         <v>80</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1220,7 +1223,7 @@
         <v>84</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1253,10 +1256,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1289,10 +1292,10 @@
         <v>41</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1325,10 +1328,10 @@
         <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1358,10 +1361,10 @@
         <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1372,10 @@
         <v>67</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
@@ -1380,76 +1383,76 @@
         <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +1473,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>14</v>
@@ -1478,26 +1481,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1519,54 +1522,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3" s="31">
-        <v>2.0160103E7</v>
+        <v>2.0160104E7</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="12" t="s">
@@ -1598,11 +1601,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1630,11 +1633,11 @@
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1662,7 +1665,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="12" t="s">
@@ -1694,7 +1697,7 @@
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="14" t="s">
@@ -1703,25 +1706,25 @@
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>21</v>
@@ -1754,7 +1757,7 @@
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>20</v>
@@ -1818,23 +1821,23 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>20</v>
@@ -1842,31 +1845,31 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>184</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>20</v>
@@ -1874,18 +1877,18 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>187</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -1906,15 +1909,15 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>20</v>
@@ -1922,10 +1925,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -31770,11 +31773,11 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="25" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>84</v>
@@ -31960,7 +31963,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -31991,10 +31994,10 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -32021,14 +32024,14 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
@@ -32155,7 +32158,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="3"/>
@@ -32169,12 +32172,12 @@
       <c r="B3" s="12"/>
       <c r="C3" s="3"/>
       <c r="D3" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
       <c r="G3" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -32188,19 +32191,19 @@
       <c r="B4" s="5"/>
       <c r="C4" s="3"/>
       <c r="D4" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -32211,19 +32214,19 @@
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
       <c r="D5" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -32234,19 +32237,19 @@
       <c r="B6" s="5"/>
       <c r="C6" s="3"/>
       <c r="D6" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -32261,15 +32264,15 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -32280,21 +32283,21 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -32305,17 +32308,17 @@
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -32328,15 +32331,15 @@
         <v>20</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -32347,11 +32350,11 @@
       <c r="B11" s="12"/>
       <c r="C11" s="3"/>
       <c r="D11" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -32368,15 +32371,15 @@
         <v>55</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="3"/>
